--- a/design/Backend Design Document.xlsx
+++ b/design/Backend Design Document.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>Backend Design Document</t>
   </si>
@@ -50,6 +50,18 @@
     <t>Johan</t>
   </si>
   <si>
+    <t>Routes</t>
+  </si>
+  <si>
+    <t>Add Site: Admin</t>
+  </si>
+  <si>
+    <t>Controllers</t>
+  </si>
+  <si>
+    <t>Add Controller: Admin</t>
+  </si>
+  <si>
     <t>※ Routes</t>
   </si>
   <si>
@@ -107,9 +119,38 @@
     <t>/</t>
   </si>
   <si>
+    <t>Site: Admin</t>
+  </si>
+  <si>
+    <t>/admin/login</t>
+  </si>
+  <si>
+    <t>/user/login</t>
+  </si>
+  <si>
+    <t>Display admin log in form.</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Verify log in.
+When success redirect to:
+/admin/resellers</t>
+  </si>
+  <si>
     <t>Site: Resellers</t>
   </si>
   <si>
+    <t>/admin/resellers</t>
+  </si>
+  <si>
+    <t>/resellers/index</t>
+  </si>
+  <si>
+    <t>Display reseller list.</t>
+  </si>
+  <si>
     <t>/resellers/register</t>
   </si>
   <si>
@@ -119,11 +160,8 @@
     <t>Display registration form.</t>
   </si>
   <si>
-    <t>Post</t>
-  </si>
-  <si>
     <t>Create reseller data.
-When success rdirect to: /resellers/thanks</t>
+When success redirect to: /resellers/thanks</t>
   </si>
   <si>
     <t>/resellers/thanks</t>
@@ -144,6 +182,9 @@
     <t>Parameters</t>
   </si>
   <si>
+    <t>User Login</t>
+  </si>
+  <si>
     <t>Data Passed From View</t>
   </si>
   <si>
@@ -162,21 +203,72 @@
     <t>index</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>page</t>
   </si>
   <si>
-    <t>Page name</t>
+    <t>"home"</t>
   </si>
   <si>
     <t>pageview</t>
   </si>
   <si>
-    <t>Page view file</t>
+    <t>"home/index"</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>/users/login</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>"users"</t>
+  </si>
+  <si>
+    <t>"users/login"</t>
+  </si>
+  <si>
+    <t>input_value</t>
+  </si>
+  <si>
+    <t>Input values that previously passed from view</t>
+  </si>
+  <si>
+    <t>invalid_input</t>
+  </si>
+  <si>
+    <t>Invalid input message</t>
+  </si>
+  <si>
+    <t>loogin_fail_msg</t>
+  </si>
+  <si>
+    <t>Login fail message</t>
   </si>
   <si>
     <t>Reseller</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>"resellers"</t>
+  </si>
+  <si>
+    <t>"resellers/index"</t>
+  </si>
+  <si>
+    <t>reseller_list</t>
+  </si>
+  <si>
+    <t>Reseller data</t>
+  </si>
+  <si>
     <t>create</t>
   </si>
   <si>
@@ -186,34 +278,28 @@
     <t>Nama</t>
   </si>
   <si>
+    <t>"reseller"</t>
+  </si>
+  <si>
     <t>reseller_address</t>
   </si>
   <si>
     <t>Alamat</t>
   </si>
   <si>
+    <t>"reseller/create"</t>
+  </si>
+  <si>
     <t>reseller_email</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>input_data</t>
-  </si>
-  <si>
-    <t>Data that previously passed from view</t>
-  </si>
-  <si>
     <t>reseller_phone</t>
   </si>
   <si>
     <t>No. Telp/Whatsapp</t>
-  </si>
-  <si>
-    <t>invalid_input</t>
-  </si>
-  <si>
-    <t>Invalid input message</t>
   </si>
   <si>
     <t>thanks</t>
@@ -321,7 +407,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +440,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -362,9 +479,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,14 +502,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,6 +516,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -404,14 +550,6 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,17 +569,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,18 +586,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,27 +607,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -507,31 +624,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,25 +768,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,115 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,6 +849,30 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -752,17 +893,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -773,30 +903,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,8 +947,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -840,15 +971,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -864,22 +986,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,152 +1005,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,35 +1169,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1091,10 +1280,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1471,6 +1678,7 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="3.76190476190476" customWidth="1"/>
+    <col min="3" max="3" width="11.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="48.8285714285714" customWidth="1"/>
     <col min="5" max="5" width="11.4380952380952"/>
   </cols>
@@ -1482,151 +1690,170 @@
       <c r="C2" s="1"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="19">
+      <c r="B6" s="44">
         <v>0</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="45" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="46">
         <v>43401</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="47">
+        <v>1</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="48">
+        <v>43401</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="44"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="44"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="19"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="19"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1635,7 +1862,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E21"/>
+  <dimension ref="B2:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1650,171 +1877,233 @@
   <sheetData>
     <row r="2" ht="21" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="4" customFormat="1" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" customFormat="1" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="38"/>
     </row>
     <row r="9" customFormat="1" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="1"/>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:5">
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
-      <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B19" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="45" spans="2:5">
+      <c r="B20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="2:5">
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" ht="45" spans="2:5">
-      <c r="B20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="2:5">
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>36</v>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="2:5">
+      <c r="B24" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="2:5">
+      <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="45" spans="2:5">
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="2:5">
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +2119,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:I17"/>
+  <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1841,262 +2130,484 @@
     <col min="1" max="1" width="3.76190476190476" customWidth="1"/>
     <col min="2" max="3" width="20.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="11.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="8.71428571428571" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="19.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="15.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="38.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="19.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="15.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="46.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" spans="2:5">
+    <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="4" customFormat="1" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" customFormat="1" spans="2:9">
+    <row r="5" customFormat="1" spans="2:10">
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" customFormat="1" spans="2:9">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" customFormat="1" spans="2:10">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="2:9">
+        <v>56</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="2:9">
+        <v>61</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="2:10">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" customFormat="1" spans="2:3">
       <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" customFormat="1" spans="2:10">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" customFormat="1" spans="2:9">
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" customFormat="1" spans="2:9">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" spans="2:10">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>44</v>
+        <v>26</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="2:9">
-      <c r="B13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="2:9">
+        <v>56</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:10">
+      <c r="B13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:10">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="2:9">
+      <c r="E14" s="14"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="2:10">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="2:10">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="2:10">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1" spans="2:3">
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:10">
+      <c r="B20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" customFormat="1" spans="2:10">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="I21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="4" t="s">
+    </row>
+    <row r="22" customFormat="1" spans="2:10">
+      <c r="B22" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="2:10">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="2:10">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="2:10">
+      <c r="B25" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" spans="2:9">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="F25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="J25" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="2:10">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="2:9">
-      <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="2:10">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="2:10">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="2:10">
+      <c r="B29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
+  <mergeCells count="34">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C28"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2121,237 +2632,237 @@
   <sheetData>
     <row r="2" ht="21" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="4" customFormat="1" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" customFormat="1" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="45" spans="2:4">
       <c r="B11" s="4" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:4">
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:4">
       <c r="B13" s="4" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:4">
       <c r="B14" s="4" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:4">
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:4">
       <c r="B18" s="4" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:4">
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" customFormat="1" spans="2:4">
       <c r="B20" s="4" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" customFormat="1" spans="2:4">
       <c r="B21" s="4" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" customFormat="1" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" customFormat="1" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" customFormat="1"/>
     <row r="25" customFormat="1" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="45" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +2887,7 @@
   <sheetData>
     <row r="2" ht="21" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/design/Backend Design Document.xlsx
+++ b/design/Backend Design Document.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>Backend Design Document</t>
   </si>
@@ -139,6 +139,17 @@
 /admin/resellers</t>
   </si>
   <si>
+    <t>/admin/logout</t>
+  </si>
+  <si>
+    <t>/user/logout</t>
+  </si>
+  <si>
+    <t>Log out.
+Thenk redirect to:
+/admin/login</t>
+  </si>
+  <si>
     <t>Site: Resellers</t>
   </si>
   <si>
@@ -160,8 +171,42 @@
     <t>Display registration form.</t>
   </si>
   <si>
-    <t>Create reseller data.
-When success redirect to: /resellers/thanks</t>
+    <r>
+      <t xml:space="preserve">Create reseller data.
+When success redirect to:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If logged in: /admin/resellers
+If not logged in: /resellers/thanks</t>
+    </r>
+  </si>
+  <si>
+    <t>/admin/resellers/edit/$id</t>
+  </si>
+  <si>
+    <t>/resellers/update/$id</t>
+  </si>
+  <si>
+    <t>Update reseller data.
+When success redirect to: /admin/resellers</t>
+  </si>
+  <si>
+    <t>/admin/resellers/delete/$id</t>
+  </si>
+  <si>
+    <t>/resellers/delete/$id</t>
+  </si>
+  <si>
+    <t>Delete reseller data.
+When success redirect to: /admin/resellers</t>
   </si>
   <si>
     <t>/resellers/thanks</t>
@@ -251,12 +296,21 @@
     <t>Login fail message</t>
   </si>
   <si>
+    <t>/users/logout</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>"users/logout"</t>
+  </si>
+  <si>
     <t>Reseller</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>"resellers"</t>
   </si>
   <si>
@@ -302,6 +356,9 @@
     <t>No. Telp/Whatsapp</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
@@ -336,9 +393,6 @@
   </si>
   <si>
     <t>select</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>If id is given, select one item demtermined by id.
@@ -403,8 +457,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -487,21 +541,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,7 +586,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,8 +601,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,10 +624,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,40 +640,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,9 +655,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,7 +678,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,13 +828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,157 +846,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,33 +957,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -947,11 +974,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,6 +1011,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1005,7 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,134 +1077,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1178,9 +1232,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1196,18 +1247,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1226,9 +1277,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1238,9 +1286,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1248,15 +1293,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1690,162 +1726,162 @@
       <c r="C2" s="1"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="35"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="44">
+      <c r="B6" s="38">
         <v>0</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="39" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="40">
         <v>43401</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="47">
+      <c r="B7" s="41">
         <v>1</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="42">
         <v>43401</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="49"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="39" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="49"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="44"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="44"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="44"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="44"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="44"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="44"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="44"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="51"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="4"/>
     </row>
   </sheetData>
@@ -1862,7 +1898,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E27"/>
+  <dimension ref="B2:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1902,19 +1938,19 @@
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" customFormat="1" spans="2:4">
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="9" customFormat="1" spans="2:2">
       <c r="B9" s="2" t="s">
@@ -2003,107 +2039,163 @@
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="45" spans="2:5">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" customFormat="1"/>
-    <row r="22" customFormat="1" spans="2:2">
-      <c r="B22" s="2" t="s">
+    <row r="21" customFormat="1" ht="45" spans="2:5">
+      <c r="B21" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" customFormat="1" spans="2:5">
-      <c r="B23" s="3" t="s">
+      <c r="C21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="2:5">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="2:5">
-      <c r="B24" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="33" t="s">
+    <row r="25" customFormat="1" spans="2:5">
+      <c r="B25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="2:5">
-      <c r="B25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="2:5">
+      <c r="B26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" ht="45" spans="2:5">
-      <c r="B26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="60" spans="2:5">
+      <c r="B27" s="4" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="2:5">
-      <c r="B27" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="2:5">
+      <c r="B28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E28" s="11" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="45" spans="2:5">
+      <c r="B29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="45" spans="2:5">
+      <c r="B30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="2:5">
+      <c r="B31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2119,7 +2211,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:J29"/>
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2128,7 +2220,8 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.76190476190476" customWidth="1"/>
-    <col min="2" max="3" width="20.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="22.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="11.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="8.71428571428571" customWidth="1"/>
@@ -2140,7 +2233,7 @@
   <sheetData>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -2149,7 +2242,7 @@
     </row>
     <row r="4" customFormat="1" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -2158,21 +2251,21 @@
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -2185,16 +2278,16 @@
         <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:10">
@@ -2202,20 +2295,20 @@
         <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:10">
@@ -2227,16 +2320,16 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" customFormat="1" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2245,21 +2338,21 @@
         <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -2272,342 +2365,478 @@
         <v>26</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:10">
       <c r="B13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:10">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="2:10">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="2:10">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="2:10">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="2:10">
+      <c r="B18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="2:10">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1" spans="2:3">
+      <c r="B21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:10">
+      <c r="B22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:10">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="I23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="33" t="s">
+    </row>
+    <row r="24" customFormat="1" spans="2:10">
+      <c r="B24" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" customFormat="1" spans="2:10">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="33" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="2:10">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="2:10">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="2:10">
+      <c r="B27" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" customFormat="1" spans="2:10">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="2:10">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="2:10">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1" spans="2:3">
-      <c r="B19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" customFormat="1" spans="2:10">
-      <c r="B20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" customFormat="1" spans="2:10">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="2:10">
-      <c r="B22" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="2:10">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="2:10">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="2:10">
-      <c r="B25" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="2:10">
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="2:10">
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="14"/>
       <c r="F27" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J27" s="34" t="s">
-        <v>71</v>
+      <c r="J27" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:10">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="18"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="37" t="s">
-        <v>73</v>
+      <c r="J28" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:10">
-      <c r="B29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="2:10">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="2:10">
+      <c r="B31" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="2:10">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="2:10">
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="2:10">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="2:10">
+      <c r="B35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="42">
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D31:D34"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E13:E17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E31:E34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2632,22 +2861,22 @@
   <sheetData>
     <row r="2" ht="21" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="4" customFormat="1" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
@@ -2655,30 +2884,30 @@
     </row>
     <row r="6" customFormat="1" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" customFormat="1" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -2687,7 +2916,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>18</v>
@@ -2695,59 +2924,59 @@
     </row>
     <row r="11" customFormat="1" ht="45" spans="2:4">
       <c r="B11" s="4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:4">
       <c r="B12" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:4">
       <c r="B13" s="4" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:4">
       <c r="B14" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:4">
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>18</v>
@@ -2755,57 +2984,57 @@
     </row>
     <row r="18" customFormat="1" spans="2:4">
       <c r="B18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:4">
       <c r="B19" s="4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" customFormat="1" spans="2:4">
       <c r="B20" s="4" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" customFormat="1" spans="2:4">
       <c r="B21" s="4" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" customFormat="1" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" customFormat="1" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -2815,7 +3044,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>18</v>
@@ -2823,46 +3052,46 @@
     </row>
     <row r="26" customFormat="1" ht="45" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2887,7 +3116,7 @@
   <sheetData>
     <row r="2" ht="21" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/design/Backend Design Document.xlsx
+++ b/design/Backend Design Document.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
   <si>
     <t>Backend Design Document</t>
   </si>
@@ -44,7 +44,7 @@
     <t>All</t>
   </si>
   <si>
-    <t>New establish</t>
+    <t>New establish.</t>
   </si>
   <si>
     <t>Johan</t>
@@ -53,13 +53,34 @@
     <t>Routes</t>
   </si>
   <si>
-    <t>Add Site: Admin</t>
+    <t>Add Site: Admin.</t>
   </si>
   <si>
     <t>Controllers</t>
   </si>
   <si>
-    <t>Add Controller: Admin</t>
+    <t>Add Controller: Admin.</t>
+  </si>
+  <si>
+    <t>Add route of Admin.
+Disable some routes of Resellers.
+Add Site: Payslip.</t>
+  </si>
+  <si>
+    <t>Add Resellers data: reseller_payslip.</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Add User data: name, email.
+Add Resellers data: reseller_payslip.</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Add field to tbl_resellers: payslip.</t>
   </si>
   <si>
     <t>※ Routes</t>
@@ -120,6 +141,15 @@
   </si>
   <si>
     <t>Site: Admin</t>
+  </si>
+  <si>
+    <t>/admin</t>
+  </si>
+  <si>
+    <t>/user/update</t>
+  </si>
+  <si>
+    <t>Display user data.</t>
   </si>
   <si>
     <t>/admin/login</t>
@@ -150,6 +180,12 @@
 /admin/login</t>
   </si>
   <si>
+    <t>/admin/edit</t>
+  </si>
+  <si>
+    <t>Update user data.</t>
+  </si>
+  <si>
     <t>Site: Resellers</t>
   </si>
   <si>
@@ -171,22 +207,10 @@
     <t>Display registration form.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Create reseller data.
+    <t>Create reseller data.
 When success redirect to:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If logged in: /admin/resellers
+If logged in: /admin/resellers
 If not logged in: /resellers/thanks</t>
-    </r>
   </si>
   <si>
     <t>/admin/resellers/edit/$id</t>
@@ -215,6 +239,18 @@
     <t>Display thanks message.</t>
   </si>
   <si>
+    <t>Site: Payslip</t>
+  </si>
+  <si>
+    <t>/payslips/$id</t>
+  </si>
+  <si>
+    <t>/payslips/index/$id</t>
+  </si>
+  <si>
+    <t>Get payslip data.</t>
+  </si>
+  <si>
     <t>※ Controllers</t>
   </si>
   <si>
@@ -308,6 +344,33 @@
     <t>"users/logout"</t>
   </si>
   <si>
+    <t>/users/update</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>user_surename</t>
+  </si>
+  <si>
+    <t>Nama Anda</t>
+  </si>
+  <si>
+    <t>user_email</t>
+  </si>
+  <si>
+    <t>Email Anda</t>
+  </si>
+  <si>
+    <t>"users/index"</t>
+  </si>
+  <si>
+    <t>update_ok_msg</t>
+  </si>
+  <si>
+    <t>Update OK message</t>
+  </si>
+  <si>
     <t>Reseller</t>
   </si>
   <si>
@@ -335,6 +398,10 @@
     <t>"reseller"</t>
   </si>
   <si>
+    <t>Send new reseller data by email to:
+hai.stuw@gmail.com</t>
+  </si>
+  <si>
     <t>reseller_address</t>
   </si>
   <si>
@@ -356,6 +423,12 @@
     <t>No. Telp/Whatsapp</t>
   </si>
   <si>
+    <t>reseller_payslip</t>
+  </si>
+  <si>
+    <t>Bukti pembayaran</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -386,10 +459,19 @@
     <t>user_name</t>
   </si>
   <si>
-    <t>CHAR(50)</t>
+    <t>VARCHAR(50)</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
   <si>
     <t>select</t>
@@ -405,9 +487,6 @@
     <t>Create new item.</t>
   </si>
   <si>
-    <t>update</t>
-  </si>
-  <si>
     <t>id, data</t>
   </si>
   <si>
@@ -420,31 +499,46 @@
     <t>reseller_id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>CHAR(100)</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
-    <t>CHAR(500)</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>VARCHAR(500)</t>
   </si>
   <si>
     <t>phone_wa</t>
   </si>
   <si>
-    <t>CHAR(20)</t>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>payslip_id</t>
   </si>
   <si>
     <t>register_date</t>
   </si>
   <si>
     <t>DATETIME</t>
+  </si>
+  <si>
+    <t>Payslip</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>mime</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>MEDIUMBLOB</t>
+  </si>
+  <si>
+    <t>created</t>
   </si>
   <si>
     <t>※ Entity Diagram</t>
@@ -461,7 +555,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,7 +588,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -503,7 +596,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -512,14 +618,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -534,14 +632,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,10 +653,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,14 +670,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -586,7 +700,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,10 +737,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,19 +752,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -639,37 +766,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,7 +776,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,180 +974,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -906,6 +1022,49 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -918,7 +1077,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -951,6 +1110,73 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -975,8 +1201,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,16 +1223,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,17 +1240,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,17 +1257,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,7 +1285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,134 +1303,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,21 +1444,72 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1241,74 +1518,197 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1334,10 +1734,43 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1409,19 +1842,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>389890</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>475615</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Entities"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Entity diagram"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1434,8 +1867,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247650" y="838200"/>
-          <a:ext cx="3437890" cy="1876425"/>
+          <a:off x="257175" y="657225"/>
+          <a:ext cx="5342890" cy="2124075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1726,169 +2159,194 @@
       <c r="C2" s="1"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="93"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="95" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="94" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="38">
+      <c r="B6" s="96">
         <v>0</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="97" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="98">
         <v>43401</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="96" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="41">
+      <c r="B7" s="99">
         <v>1</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="97" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="100">
         <v>43401</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="99" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="43"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="97" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="43"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="38"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="101"/>
+    </row>
+    <row r="9" ht="45" spans="2:6">
+      <c r="B9" s="103">
+        <v>2</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="106">
+        <v>43408</v>
+      </c>
+      <c r="F9" s="107" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="38"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="38"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+    </row>
+    <row r="11" ht="30" spans="2:6">
+      <c r="B11" s="108"/>
+      <c r="C11" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="109"/>
+      <c r="F11" s="110"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="38"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="96"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="38"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="96"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="38"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="96"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="38"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="96"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="38"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="96"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="38"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="96"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="38"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="96"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="38"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="96"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="45"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B12"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E12"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1898,10 +2356,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E31"/>
+  <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1913,289 +2371,350 @@
   <sheetData>
     <row r="2" ht="21" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="4" customFormat="1" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="32"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="92"/>
     </row>
     <row r="7" customFormat="1" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="32"/>
+        <v>27</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="92"/>
     </row>
     <row r="9" customFormat="1" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="1"/>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:5">
       <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
-      <c r="B19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" ht="45" spans="2:5">
-      <c r="B20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="E19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="2:5">
+      <c r="B20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>38</v>
+      <c r="E20" s="28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="45" spans="2:5">
-      <c r="B21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="33" t="s">
+      <c r="B21" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="45" spans="2:5">
+      <c r="B22" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="2:5">
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1" spans="2:2">
-      <c r="B23" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="2:5">
-      <c r="B24" s="3" t="s">
+      <c r="D23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="2:5">
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="2:5">
-      <c r="B25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="2:5">
-      <c r="B26" s="4" t="s">
+    </row>
+    <row r="27" customFormat="1" spans="2:5">
+      <c r="B27" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="2:5">
+      <c r="B28" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="60" spans="2:5">
+      <c r="B29" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" ht="60" spans="2:5">
-      <c r="B27" s="4" t="s">
+      <c r="E29" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="2:5">
+      <c r="B30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="45" spans="2:5">
+      <c r="B31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="2:5">
-      <c r="B28" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" ht="45" spans="2:5">
-      <c r="B29" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" ht="45" spans="2:5">
-      <c r="B30" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="2:5">
-      <c r="B31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>57</v>
+      <c r="E31" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="45" spans="2:5">
+      <c r="B32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="2:5">
+      <c r="B33" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="2:5">
+      <c r="B36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="2:5">
+      <c r="B37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2211,10 +2730,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:J35"/>
+  <dimension ref="B2:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E32" sqref="E32:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2229,11 +2748,12 @@
     <col min="8" max="8" width="19.8571428571429" customWidth="1"/>
     <col min="9" max="9" width="15.2857142857143" customWidth="1"/>
     <col min="10" max="10" width="46.4285714285714" customWidth="1"/>
+    <col min="11" max="11" width="28.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -2242,601 +2762,784 @@
     </row>
     <row r="4" customFormat="1" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" customFormat="1" spans="2:10">
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" customFormat="1" spans="2:10">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="2:10">
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="2:10">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>73</v>
-      </c>
+    <row r="5" customFormat="1" spans="2:11">
+      <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" customFormat="1" spans="2:11">
+      <c r="B7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" customFormat="1" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" customFormat="1" spans="2:10">
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="6" t="s">
+    <row r="11" customFormat="1" spans="2:11">
+      <c r="B11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" customFormat="1" spans="2:11">
+      <c r="B13" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" customFormat="1" spans="2:11">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" customFormat="1" spans="2:11">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:11">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" customFormat="1" spans="2:11">
+      <c r="B18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:11">
+      <c r="B20" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" customFormat="1" spans="2:11">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="37"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:11">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="37"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:11">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="39"/>
+    </row>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1" spans="2:3">
+      <c r="B26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:11">
+      <c r="B27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" customFormat="1" spans="2:11">
+      <c r="B29" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="46"/>
+    </row>
+    <row r="30" customFormat="1" spans="2:11">
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="47"/>
+    </row>
+    <row r="31" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" s="48"/>
+    </row>
+    <row r="32" customFormat="1" spans="2:11">
+      <c r="B32" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="2:11">
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" s="88"/>
+    </row>
+    <row r="34" customFormat="1" spans="2:11">
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="88"/>
+    </row>
+    <row r="35" customFormat="1" spans="2:11">
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J35" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35" s="88"/>
+    </row>
+    <row r="36" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="32"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="89"/>
+    </row>
+    <row r="37" customFormat="1" spans="2:11">
+      <c r="B37" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" customFormat="1" spans="2:10">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="C37" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="J37" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" s="63"/>
+    </row>
+    <row r="38" customFormat="1" spans="2:11">
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="K38" s="68"/>
+    </row>
+    <row r="39" customFormat="1" spans="2:11">
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="I39" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="J39" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="K39" s="68"/>
+    </row>
+    <row r="40" customFormat="1" spans="2:11">
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="K40" s="68"/>
+    </row>
+    <row r="41" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="I41" s="76"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="73"/>
+    </row>
+    <row r="42" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B42" s="78" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" customFormat="1" spans="2:10">
-      <c r="B13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="2:10">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="2:10">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="2:10">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="2:10">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="2:10">
-      <c r="B18" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="2:10">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1"/>
-    <row r="21" customFormat="1" spans="2:3">
-      <c r="B21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" customFormat="1" spans="2:10">
-      <c r="B22" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" customFormat="1" spans="2:10">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="2:10">
-      <c r="B24" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="2:10">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="2:10">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="2:10">
-      <c r="B27" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="2:10">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="2:10">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="2:10">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="2:10">
-      <c r="B31" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="2:10">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="2:10">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="2:10">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J34" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="2:10">
-      <c r="B35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="C42" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="79"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="56">
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B41"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C41"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="D37:D41"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="K37:K41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2846,7 +3549,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D29"/>
+  <dimension ref="B2:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2861,237 +3564,391 @@
   <sheetData>
     <row r="2" ht="21" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="4" customFormat="1" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" customFormat="1" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>115</v>
+        <v>143</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="45" spans="2:4">
-      <c r="B11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="2:4">
-      <c r="B12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="2:4">
+    <row r="9" customFormat="1" spans="2:4">
+      <c r="B9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:4">
+      <c r="B10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="45" spans="2:4">
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>123</v>
+        <v>132</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:4">
       <c r="B14" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="2:4">
+      <c r="B15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="2:2">
-      <c r="B16" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="2:4">
-      <c r="B17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="2:4">
-      <c r="B18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="2:4">
+      <c r="B16" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="2:2">
+      <c r="B18" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:4">
-      <c r="B19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" customFormat="1" spans="2:4">
       <c r="B20" s="4" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>139</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="21" customFormat="1" spans="2:4">
       <c r="B21" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" customFormat="1" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" customFormat="1" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" customFormat="1"/>
+    <row r="24" customFormat="1" spans="2:4">
+      <c r="B24" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
     <row r="25" customFormat="1" spans="2:4">
-      <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" ht="45" spans="2:4">
+      <c r="B25" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1" spans="2:4">
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="45" spans="2:4">
+      <c r="B29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="2:4">
+      <c r="B30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="2:4">
+      <c r="B31" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="C31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="2:4">
+      <c r="B32" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" ht="45" spans="2:4">
+      <c r="B44" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" customFormat="1" spans="2:4">
-      <c r="B27" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="2:4">
-      <c r="B28" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="2:4">
-      <c r="B29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="C45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>123</v>
+      <c r="C46" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3116,7 +3973,7 @@
   <sheetData>
     <row r="2" ht="21" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/design/Backend Design Document.xlsx
+++ b/design/Backend Design Document.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8505"/>
+    <workbookView windowWidth="19890" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181">
   <si>
     <t>Backend Design Document</t>
   </si>
@@ -81,6 +81,23 @@
   </si>
   <si>
     <t>Add field to tbl_resellers: payslip.</t>
+  </si>
+  <si>
+    <t>Resellers:
+Enable reseller_address.
+Add resellers_postcode.
+Add resellers_courier.
+Send noification email to admin and reseller.</t>
+  </si>
+  <si>
+    <t>Reseller:
+Add postcode.
+Add courier.</t>
+  </si>
+  <si>
+    <t>tbl_reseller:
+Add postcode.
+Add courier.</t>
   </si>
   <si>
     <t>※ Routes</t>
@@ -398,8 +415,21 @@
     <t>"reseller"</t>
   </si>
   <si>
-    <t>Send new reseller data by email to:
-hai.stuw@gmail.com</t>
+    <r>
+      <t xml:space="preserve">Send new reseller data by email to:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>admin's email
+reseller's email</t>
+    </r>
   </si>
   <si>
     <t>reseller_address</t>
@@ -411,6 +441,12 @@
     <t>"reseller/create"</t>
   </si>
   <si>
+    <t>reseller_postcode</t>
+  </si>
+  <si>
+    <t>Kode Pos</t>
+  </si>
+  <si>
     <t>reseller_email</t>
   </si>
   <si>
@@ -423,6 +459,12 @@
     <t>No. Telp/Whatsapp</t>
   </si>
   <si>
+    <t>reseller_courier</t>
+  </si>
+  <si>
+    <t>Ekspedisi</t>
+  </si>
+  <si>
     <t>reseller_payslip</t>
   </si>
   <si>
@@ -468,7 +510,7 @@
     <t>VARCHAR(100)</t>
   </si>
   <si>
-    <t>name</t>
+    <t>surename</t>
   </si>
   <si>
     <t>email</t>
@@ -499,16 +541,28 @@
     <t>reseller_id</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>address</t>
   </si>
   <si>
     <t>VARCHAR(500)</t>
   </si>
   <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+  </si>
+  <si>
     <t>phone_wa</t>
   </si>
   <si>
     <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>courier</t>
   </si>
   <si>
     <t>payslip_id</t>
@@ -550,12 +604,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,13 +649,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -610,14 +664,6 @@
     <font>
       <i/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -632,22 +678,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,8 +707,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,17 +737,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -696,27 +772,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -736,7 +791,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -744,24 +798,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,7 +840,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,175 +1020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,45 +1225,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,8 +1247,53 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,23 +1312,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1285,7 +1331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1303,134 +1349,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1443,10 +1489,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1455,260 +1504,212 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1738,6 +1739,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1849,12 +1868,12 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>475615</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="Entity diagram"/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Entity diagram (3)"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1868,7 +1887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="257175" y="657225"/>
-          <a:ext cx="5342890" cy="2124075"/>
+          <a:ext cx="5342890" cy="2618740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2159,194 +2178,215 @@
       <c r="C2" s="1"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="78"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="80" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="94" t="s">
+      <c r="E5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="79" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="96">
+      <c r="B6" s="81">
         <v>0</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="83">
         <v>43401</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="99">
+      <c r="B7" s="84">
         <v>1</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="85">
         <v>43401</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="F7" s="84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="101"/>
-      <c r="C8" s="97" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="102"/>
-      <c r="F8" s="101"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="86"/>
     </row>
     <row r="9" ht="45" spans="2:6">
-      <c r="B9" s="103">
+      <c r="B9" s="88">
         <v>2</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="106">
+      <c r="E9" s="90">
         <v>43408</v>
       </c>
-      <c r="F9" s="107" t="s">
+      <c r="F9" s="88" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="108"/>
-      <c r="C10" s="104" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" ht="30" spans="2:6">
-      <c r="B11" s="108"/>
-      <c r="C11" s="104" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="111"/>
-      <c r="C12" s="104" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="96"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="96"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="96"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="96"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="92"/>
+    </row>
+    <row r="13" ht="75" spans="2:6">
+      <c r="B13" s="94">
+        <v>3</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="97">
+        <v>43411</v>
+      </c>
+      <c r="F13" s="98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="45" spans="2:6">
+      <c r="B14" s="99"/>
+      <c r="C14" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
+    </row>
+    <row r="15" ht="45" spans="2:6">
+      <c r="B15" s="102"/>
+      <c r="C15" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="96"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="96"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="81"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="96"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="96"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="96"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E13:E15"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F13:F15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2359,7 +2399,7 @@
   <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2371,350 +2411,350 @@
   <sheetData>
     <row r="2" ht="21" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="4" customFormat="1" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:4">
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="92"/>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" customFormat="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="92"/>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="75"/>
     </row>
     <row r="9" customFormat="1" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="1"/>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>36</v>
+      <c r="E15" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:5">
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
-      <c r="B19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>42</v>
+      <c r="B19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:5">
-      <c r="B20" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="45" spans="2:5">
+      <c r="B21" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="45" spans="2:5">
+      <c r="B22" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="2:5">
+      <c r="B23" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" ht="45" spans="2:5">
-      <c r="B21" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="45" spans="2:5">
-      <c r="B22" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="2:5">
-      <c r="B23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>52</v>
+      <c r="E23" s="27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="1"/>
     <row r="25" customFormat="1" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:5">
-      <c r="B27" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>56</v>
+      <c r="B27" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:5">
-      <c r="B28" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>59</v>
+      <c r="B28" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="60" spans="2:5">
-      <c r="B29" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="27" t="s">
+      <c r="B29" s="27" t="s">
         <v>60</v>
       </c>
+      <c r="C29" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" customFormat="1" spans="2:5">
-      <c r="B30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="31" customFormat="1" ht="45" spans="2:5">
-      <c r="B31" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>63</v>
+      <c r="B31" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="45" spans="2:5">
-      <c r="B32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>66</v>
+      <c r="B32" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:5">
-      <c r="B33" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>68</v>
+      <c r="B33" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="2:2">
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="2:5">
       <c r="B36" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="2:5">
-      <c r="B37" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>72</v>
+      <c r="B37" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2730,10 +2770,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:K42"/>
+  <dimension ref="B2:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E36"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2753,7 +2793,7 @@
   <sheetData>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -2762,77 +2802,77 @@
     </row>
     <row r="4" customFormat="1" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" customFormat="1" spans="2:11">
-      <c r="B5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="B5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
-        <v>24</v>
+      <c r="E5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" customFormat="1" spans="2:11">
-      <c r="B7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>83</v>
+      <c r="B7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>86</v>
+      <c r="I7" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -2844,643 +2884,679 @@
       <c r="F8" s="21"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>88</v>
+      <c r="I8" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="K8" s="19"/>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" customFormat="1" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" customFormat="1" spans="2:11">
-      <c r="B11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="B11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11" t="s">
-        <v>24</v>
+      <c r="E11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" customFormat="1" spans="2:11">
       <c r="B13" s="22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="K13" s="22"/>
     </row>
     <row r="14" customFormat="1" spans="2:11">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" customFormat="1" spans="2:11">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="83" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:11">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" customFormat="1" spans="2:11">
+      <c r="B18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" customFormat="1" spans="2:11">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="83" t="s">
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:11">
+      <c r="B20" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="68"/>
+    </row>
+    <row r="21" customFormat="1" spans="2:11">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="69"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:11">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32" t="s">
+      <c r="J22" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="J17" s="84" t="s">
+      <c r="K22" s="69"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:11">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="29"/>
-    </row>
-    <row r="18" customFormat="1" spans="2:11">
-      <c r="B18" s="15" t="s">
+      <c r="J23" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" customFormat="1" spans="2:11">
-      <c r="B20" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="33"/>
-    </row>
-    <row r="21" customFormat="1" spans="2:11">
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="22" customFormat="1" spans="2:11">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J22" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="37"/>
-    </row>
-    <row r="23" customFormat="1" spans="2:11">
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="K23" s="37"/>
+      <c r="K23" s="69"/>
     </row>
     <row r="24" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="J24" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="39"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="70"/>
     </row>
     <row r="25" customFormat="1"/>
     <row r="26" customFormat="1" spans="2:3">
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" customFormat="1" spans="2:11">
-      <c r="B27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="43" t="s">
+      <c r="B27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="11" t="s">
+      <c r="D27" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11" t="s">
-        <v>24</v>
+      <c r="E27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K28" s="13"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="14"/>
     </row>
     <row r="29" customFormat="1" spans="2:11">
-      <c r="B29" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="46"/>
+      <c r="B29" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="33"/>
       <c r="E29" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" s="46"/>
+        <v>105</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="33"/>
     </row>
     <row r="30" customFormat="1" spans="2:11">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="34"/>
+    </row>
+    <row r="31" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" customFormat="1" spans="2:11">
+      <c r="B32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="J30" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="K30" s="47"/>
-    </row>
-    <row r="31" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="J31" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="K31" s="48"/>
-    </row>
-    <row r="32" customFormat="1" spans="2:11">
-      <c r="B32" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H32" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32" s="15" t="s">
+      <c r="F32" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K32" s="71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="2:11">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" customFormat="1" spans="2:11">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J34" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" customFormat="1" spans="2:11">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" customFormat="1" spans="2:11">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" customFormat="1" spans="2:11">
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="42"/>
+    </row>
+    <row r="38" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="28"/>
+    </row>
+    <row r="39" customFormat="1" spans="2:11">
+      <c r="B39" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="K32" s="87" t="s">
+      <c r="D39" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="50" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="33" customFormat="1" spans="2:11">
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="H39" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="I39" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="I33" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="K33" s="88"/>
-    </row>
-    <row r="34" customFormat="1" spans="2:11">
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="28" t="s">
+      <c r="K39" s="47"/>
+    </row>
+    <row r="40" customFormat="1" spans="2:11">
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="58" t="s">
+      <c r="H40" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="I34" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="J34" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="K34" s="88"/>
-    </row>
-    <row r="35" customFormat="1" spans="2:11">
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="28" t="s">
+      <c r="I40" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="J35" s="83" t="s">
+      <c r="K40" s="52"/>
+    </row>
+    <row r="41" customFormat="1" spans="2:11">
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="K35" s="88"/>
-    </row>
-    <row r="36" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="H36" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="89"/>
-    </row>
-    <row r="37" customFormat="1" spans="2:11">
-      <c r="B37" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="H37" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I37" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="J37" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="K37" s="63"/>
-    </row>
-    <row r="38" customFormat="1" spans="2:11">
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="J38" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="K38" s="68"/>
-    </row>
-    <row r="39" customFormat="1" spans="2:11">
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="H39" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="I39" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="J39" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="K39" s="68"/>
-    </row>
-    <row r="40" customFormat="1" spans="2:11">
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="H40" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="I40" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="J40" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="K40" s="68"/>
-    </row>
-    <row r="41" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="H41" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="I41" s="76"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="73"/>
-    </row>
-    <row r="42" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B42" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="78" t="s">
+      <c r="J41" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="52"/>
+    </row>
+    <row r="42" customFormat="1" spans="2:11">
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="79"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
+      <c r="H42" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="K42" s="52"/>
+    </row>
+    <row r="43" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="H43" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" s="60"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="57"/>
+    </row>
+    <row r="44" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B44" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="62"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -3498,8 +3574,8 @@
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B43"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C11:C12"/>
@@ -3508,8 +3584,8 @@
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C39:C43"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D11:D12"/>
@@ -3518,8 +3594,8 @@
     <mergeCell ref="D20:D24"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="D39:D43"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E11:E12"/>
@@ -3528,8 +3604,8 @@
     <mergeCell ref="E20:E24"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="E39:E43"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="K11:K12"/>
@@ -3538,8 +3614,8 @@
     <mergeCell ref="K20:K24"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="K37:K41"/>
+    <mergeCell ref="K32:K38"/>
+    <mergeCell ref="K39:K43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3549,10 +3625,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D47"/>
+  <dimension ref="B2:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3564,391 +3640,409 @@
   <sheetData>
     <row r="2" ht="21" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="4" customFormat="1" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" customFormat="1" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" customFormat="1" spans="2:4">
       <c r="B9" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="45" spans="2:4">
-      <c r="B13" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>148</v>
+      <c r="B13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:4">
-      <c r="B14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>150</v>
+      <c r="B14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:4">
-      <c r="B15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>152</v>
+      <c r="B15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:4">
-      <c r="B16" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>152</v>
+      <c r="B16" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:4">
       <c r="B19" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:4">
       <c r="B20" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:4">
       <c r="B21" s="4" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" customFormat="1" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" customFormat="1" spans="2:4">
-      <c r="B23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>142</v>
+      <c r="B23" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" customFormat="1" spans="2:4">
       <c r="B24" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" customFormat="1" spans="2:4">
+      <c r="B25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:4">
+      <c r="B26" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:4">
+      <c r="B27" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" customFormat="1" spans="2:4">
+      <c r="B28" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1" spans="2:4">
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="45" spans="2:4">
+      <c r="B31" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="2:4">
+      <c r="B32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="4" t="s">
+    </row>
+    <row r="33" customFormat="1" spans="2:4">
+      <c r="B33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" customFormat="1" spans="2:4">
-      <c r="B25" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="5" t="s">
+    </row>
+    <row r="34" customFormat="1" spans="2:4">
+      <c r="B34" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" customFormat="1" spans="2:4">
-      <c r="B26" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" customFormat="1"/>
-    <row r="28" customFormat="1" spans="2:4">
-      <c r="B28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" ht="45" spans="2:4">
-      <c r="B29" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="2:4">
-      <c r="B30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="2:4">
-      <c r="B31" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="2:4">
-      <c r="B32" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="5" t="s">
+      <c r="D34" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>140</v>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="7"/>
+      <c r="B37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="7"/>
+        <v>146</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="5" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="7"/>
+        <v>177</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" ht="45" spans="2:4">
-      <c r="B44" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>148</v>
-      </c>
+      <c r="B43" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="5"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>152</v>
+      <c r="B45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" ht="45" spans="2:4">
+      <c r="B46" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="5" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3973,7 +4067,7 @@
   <sheetData>
     <row r="2" ht="21" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
